--- a/webcentral/doc/01_data/18_protocols/2023_08_21_protocols.xlsx
+++ b/webcentral/doc/01_data/18_protocols/2023_08_21_protocols.xlsx
@@ -8,7 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="2023_08_21_protocols" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="German" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="English" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="185">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -85,12 +86,54 @@
     <t xml:space="preserve">exampleProject</t>
   </si>
   <si>
-    <t xml:space="preserve">link</t>
+    <t xml:space="preserve">resources</t>
   </si>
   <si>
     <t xml:space="preserve">image</t>
   </si>
   <si>
+    <t xml:space="preserve">applicationArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lifeCyclePhase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">targetGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alternatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">developmentState</t>
+  </si>
+  <si>
+    <t xml:space="preserve">furtherInformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yearOfRelease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">programmingLanguages</t>
+  </si>
+  <si>
     <t xml:space="preserve">BACnet</t>
   </si>
   <si>
@@ -143,6 +186,9 @@
   </si>
   <si>
     <t xml:space="preserve">BACnet_logo.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technisch</t>
   </si>
   <si>
     <t xml:space="preserve">KNX</t>
@@ -530,6 +576,9 @@
   </si>
   <si>
     <t xml:space="preserve">profibus_logo.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link</t>
   </si>
 </sst>
 </file>
@@ -544,6 +593,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -603,9 +653,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -731,813 +793,891 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AK3" activeCellId="0" sqref="AK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="60.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="76.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="108.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="35.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="45.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="49.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="24.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="29.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="26.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="125.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="5.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="85.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="42.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="38.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="39.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="17.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="60.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="76.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="29.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="30.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="108.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="35.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="45.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="49.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="24.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="29.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="26.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="125.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="5.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="85.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="42.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="38.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="39.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="17.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="0" t="s">
+      <c r="F3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="K3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="0" t="s">
+      <c r="M3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="S3" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="T3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="W3" s="0" t="s">
+      <c r="O3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="A4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y4" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="S4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="T4" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="V4" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="W4" s="0" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="S5" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="T5" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="V5" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="W5" s="0" t="s">
+      <c r="A5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>78</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="S6" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="T6" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="V6" s="0" t="s">
+      <c r="A6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W6" s="0" t="s">
-        <v>89</v>
+      <c r="O6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="S7" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="T7" s="0" t="s">
+      <c r="A7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V7" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="W7" s="0" t="s">
-        <v>100</v>
+      <c r="C7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="0" t="s">
+      <c r="A8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q8" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="S8" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="T8" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="U8" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="V8" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="W8" s="0" t="s">
-        <v>109</v>
+      <c r="U8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="S9" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="T9" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="V9" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="W9" s="0" t="s">
-        <v>121</v>
+      <c r="A9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="A10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y10" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q10" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="S10" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="T10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="V10" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="W10" s="0" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="A11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y11" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="S11" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="T11" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="V11" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="W11" s="0" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="N12" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="O12" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="S12" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="T12" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="V12" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="W12" s="0" t="s">
-        <v>156</v>
+      <c r="A12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="N13" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="O13" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q13" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="S13" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="T13" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="V13" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="W13" s="0" t="s">
-        <v>168</v>
+      <c r="A13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1549,4 +1689,871 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AK13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AK1" activeCellId="0" sqref="AK1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="60.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="76.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="29.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="30.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="108.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="35.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="45.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="49.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="24.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="29.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="26.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="125.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="5.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="85.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="42.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="38.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="39.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="17.43"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>